--- a/To Do/Anke Appeltans.xlsx
+++ b/To Do/Anke Appeltans.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>Prioriteit:</t>
   </si>
@@ -100,9 +100,6 @@
     <t>1 uur</t>
   </si>
   <si>
-    <t>Anke Apppeltans, Jeroen Vanlessen</t>
-  </si>
-  <si>
     <t>installeren Git</t>
   </si>
   <si>
@@ -110,6 +107,42 @@
   </si>
   <si>
     <t>10 min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Het pushen van de ToDo lijst </t>
+  </si>
+  <si>
+    <t>5 min</t>
+  </si>
+  <si>
+    <t>MOCKUP</t>
+  </si>
+  <si>
+    <t>LOGO</t>
+  </si>
+  <si>
+    <t>GIT</t>
+  </si>
+  <si>
+    <t>Werken aan de template webapplicatie</t>
+  </si>
+  <si>
+    <t>2 uur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,5 uur </t>
+  </si>
+  <si>
+    <t>Anke A, Robbie V, Steven V</t>
+  </si>
+  <si>
+    <t>Anke Appeltans, Wouter Peeters</t>
+  </si>
+  <si>
+    <t>Anke Appeltans, Jeroen Vanlessen</t>
+  </si>
+  <si>
+    <t>Anke A, Steven V</t>
   </si>
 </sst>
 </file>
@@ -227,89 +260,7 @@
     <cellStyle name="Procent" xfId="1" builtinId="5"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -533,7 +484,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -620,14 +571,14 @@
     <sortCondition descending="1" ref="G1:G200"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Opmerking" dataDxfId="9"/>
+    <tableColumn id="1" name="Opmerking" dataDxfId="2"/>
     <tableColumn id="2" name="Geschatte tijd"/>
     <tableColumn id="5" name="Werkelijke tijd"/>
     <tableColumn id="9" name="Voltooid"/>
     <tableColumn id="6" name="Prioriteit"/>
-    <tableColumn id="3" name="Deelnemers" dataDxfId="8"/>
+    <tableColumn id="3" name="Deelnemers" dataDxfId="1"/>
     <tableColumn id="4" name="Solved"/>
-    <tableColumn id="8" name="APP" dataDxfId="7"/>
+    <tableColumn id="8" name="APP" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -922,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,7 +884,7 @@
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="31" style="4" customWidth="1"/>
+    <col min="6" max="6" width="43.85546875" style="4" customWidth="1"/>
     <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
@@ -970,10 +921,10 @@
         <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="6">
         <v>41355</v>
@@ -1011,12 +962,14 @@
         <v>1</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="I3" t="s">
         <v>1</v>
       </c>
@@ -1038,12 +991,14 @@
         <v>2</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1062,19 +1017,21 @@
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>22</v>
@@ -1086,12 +1043,14 @@
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="I6" s="11">
         <f>COUNTIFS(G2:G38,"Not Started")</f>
         <v>0</v>
@@ -1105,24 +1064,59 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="23">
+        <v>41360</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="I7" s="12"/>
       <c r="J7" s="13"/>
       <c r="K7" s="16"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="E8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="23">
+        <v>41361</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="I8" s="10">
         <f>COUNTIFS(G2:G38,"Fixed")</f>
         <v>0</v>
@@ -1144,7 +1138,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="17">
         <f>COUNTIFS(A2:G2038,"Solved")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J9" s="18">
         <f>I9/$I$10</f>
@@ -1163,7 +1157,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="20">
         <f>SUM(I6:I9)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J10" s="21">
         <v>1</v>
@@ -1440,27 +1434,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G41">
-    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="22" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="23" operator="equal">
       <formula>"In Process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="24" operator="equal">
       <formula>"Fixed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:H1048576">
-    <cfRule type="expression" dxfId="13" priority="15">
+    <cfRule type="expression" dxfId="6" priority="15">
       <formula>$G1="Solved"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="16">
+    <cfRule type="expression" dxfId="5" priority="16">
       <formula>$G1="Not Started"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="17">
+    <cfRule type="expression" dxfId="4" priority="17">
       <formula>$G1="In Process"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="18">
+    <cfRule type="expression" dxfId="3" priority="18">
       <formula>$G1="Fixed"</formula>
     </cfRule>
   </conditionalFormatting>
